--- a/WorkingWithIndicators.xlsx
+++ b/WorkingWithIndicators.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caio\OneDrive\Documentos\PROJETOS\PLANILHAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8525041bb7211ab/Documentos/PROJETOS/PLANILHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{1AE48534-4D25-44DA-8B23-CB5C4577EAED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{BEF35B26-C369-4BB9-9973-62B965261A58}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{1AE48534-4D25-44DA-8B23-CB5C4577EAED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{1CA756C0-4B1E-4EEB-BCC8-60513B00E1AF}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8415" activeTab="2" xr2:uid="{A06ECA6C-B157-43FC-BB99-28529C5FF4EE}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="63">
   <si>
     <t>Vendas</t>
   </si>
@@ -226,6 +226,15 @@
   </si>
   <si>
     <t>3 Principais Estados</t>
+  </si>
+  <si>
+    <t>Vendedores</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>Indicadores</t>
   </si>
 </sst>
 </file>
@@ -337,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -398,6 +407,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -642,8 +663,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A0507EFD-C3AD-4287-9C4A-46B2DD425DAD}" name="Tabela1" displayName="Tabela1" ref="A1:L4" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:L4" xr:uid="{1658989A-0783-4A79-A0F7-E7DA23DC0FA4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A0507EFD-C3AD-4287-9C4A-46B2DD425DAD}" name="Tabela1" displayName="Tabela1" ref="A1:L7" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:L7" xr:uid="{1658989A-0783-4A79-A0F7-E7DA23DC0FA4}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{380CFEBC-619C-4E7A-BC08-1F8045DE594A}" name="ID" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{1248CB8D-9551-4C84-82F3-7F758728522B}" name="DATA" dataDxfId="10"/>
@@ -1106,7 +1127,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1286,13 +1307,127 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C5" s="4"/>
+      <c r="A5" s="4">
+        <v>103</v>
+      </c>
+      <c r="B5" s="6">
+        <v>44885</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="5">
+        <v>89654</v>
+      </c>
+      <c r="H5" s="5">
+        <f>Tabela1[[#This Row],[VALOR TOTAL]]*DADOS!$N$3</f>
+        <v>1793.08</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="4">
+        <v>5</v>
+      </c>
+      <c r="K5" s="23">
+        <f>YEAR(Tabela1[[#This Row],[DATA]])</f>
+        <v>2022</v>
+      </c>
+      <c r="L5" s="23">
+        <f>MONTH(Tabela1[[#This Row],[DATA]])</f>
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C6" s="4"/>
+      <c r="A6" s="4">
+        <v>104</v>
+      </c>
+      <c r="B6" s="6">
+        <v>44887</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="5">
+        <v>11943</v>
+      </c>
+      <c r="H6" s="5">
+        <f>Tabela1[[#This Row],[VALOR TOTAL]]*DADOS!$N$3</f>
+        <v>238.86</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="4">
+        <v>4</v>
+      </c>
+      <c r="K6" s="23">
+        <f>YEAR(Tabela1[[#This Row],[DATA]])</f>
+        <v>2022</v>
+      </c>
+      <c r="L6" s="23">
+        <f>MONTH(Tabela1[[#This Row],[DATA]])</f>
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C7" s="4"/>
+      <c r="A7" s="4">
+        <v>105</v>
+      </c>
+      <c r="B7" s="6">
+        <v>44890</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="5">
+        <v>20846.97</v>
+      </c>
+      <c r="H7" s="5">
+        <f>Tabela1[[#This Row],[VALOR TOTAL]]*DADOS!$N$3</f>
+        <v>416.93940000000003</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="4">
+        <v>4</v>
+      </c>
+      <c r="K7" s="23">
+        <f>YEAR(Tabela1[[#This Row],[DATA]])</f>
+        <v>2022</v>
+      </c>
+      <c r="L7" s="23">
+        <f>MONTH(Tabela1[[#This Row],[DATA]])</f>
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="4"/>
@@ -1361,7 +1496,7 @@
   <dimension ref="B2:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1376,6 +1511,7 @@
     <col min="10" max="10" width="16.7109375" customWidth="1"/>
     <col min="11" max="11" width="11.85546875" customWidth="1"/>
     <col min="12" max="12" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" customWidth="1"/>
     <col min="14" max="14" width="18.42578125" customWidth="1"/>
     <col min="15" max="15" width="12.5703125" customWidth="1"/>
   </cols>
@@ -1470,23 +1606,23 @@
       </c>
       <c r="C5" s="5">
         <f>SUMIFS(Tabela1[VALOR TOTAL],Tabela1[PAÍS],AUXILIAR!B5)</f>
-        <v>0</v>
+        <v>11943</v>
       </c>
       <c r="D5" s="13">
         <f>COUNTIFS(Tabela1[PAÍS],B5,Tabela1[Ano],Ano,Tabela1[Mês],Mes,Tabela1[STATUS],"Andamento")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1">
         <f>COUNTIFS(Tabela1[PAÍS],AUXILIAR!B5,Tabela1[Ano],Ano,Tabela1[Mês],IndiceMes)</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="7" t="str">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7">
         <f t="shared" ref="F5:F9" si="0">IFERROR(D5/E5,"0%")</f>
-        <v>0%</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1">
         <f>IFERROR(AVERAGEIFS(Tabela1[AVALIAÇÃO],Tabela1[PAÍS],AUXILIAR!B5,Tabela1[Ano],Ano,Tabela1[Mês],Mes),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>42</v>
@@ -1530,7 +1666,7 @@
       </c>
       <c r="C7" s="5">
         <f>SUMIFS(Tabela1[VALOR TOTAL],Tabela1[PAÍS],AUXILIAR!B7)</f>
-        <v>0</v>
+        <v>20846.97</v>
       </c>
       <c r="D7" s="13">
         <f>COUNTIFS(Tabela1[PAÍS],B7,Tabela1[Ano],Ano,Tabela1[Mês],Mes,Tabela1[STATUS],"Andamento")</f>
@@ -1538,15 +1674,15 @@
       </c>
       <c r="E7" s="1">
         <f>COUNTIFS(Tabela1[PAÍS],AUXILIAR!B7,Tabela1[Ano],Ano,Tabela1[Mês],IndiceMes)</f>
+        <v>1</v>
+      </c>
+      <c r="F7" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-      <c r="F7" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
       </c>
       <c r="G7" s="1">
         <f>IFERROR(AVERAGEIFS(Tabela1[AVALIAÇÃO],Tabela1[PAÍS],AUXILIAR!B7,Tabela1[Ano],Ano,Tabela1[Mês],Mes),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I7" s="21" t="s">
         <v>43</v>
@@ -1616,7 +1752,7 @@
       </c>
       <c r="C9" s="5">
         <f>SUMIFS(Tabela1[VALOR TOTAL],Tabela1[PAÍS],AUXILIAR!B9)</f>
-        <v>0</v>
+        <v>89654</v>
       </c>
       <c r="D9" s="13">
         <f>COUNTIFS(Tabela1[PAÍS],B9,Tabela1[Ano],Ano,Tabela1[Mês],Mes,Tabela1[STATUS],"Andamento")</f>
@@ -1624,15 +1760,15 @@
       </c>
       <c r="E9" s="1">
         <f>COUNTIFS(Tabela1[PAÍS],AUXILIAR!B9,Tabela1[Ano],Ano,Tabela1[Mês],IndiceMes)</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-      <c r="F9" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
       </c>
       <c r="G9" s="1">
         <f>IFERROR(AVERAGEIFS(Tabela1[AVALIAÇÃO],Tabela1[PAÍS],AUXILIAR!B9,Tabela1[Ano],Ano,Tabela1[Mês],Mes),0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I9" s="15">
         <v>2022</v>
@@ -1646,11 +1782,11 @@
       <c r="M9" s="17" t="str">
         <f>IF(N9&gt;0,INDEX(Paises,
 MATCH(N9,Vendas_Aux,0)),"")</f>
-        <v>Belgica</v>
+        <v>Alemãnha</v>
       </c>
       <c r="N9" s="18">
         <f>LARGE(Vendas_Aux,L9)</f>
-        <v>25863</v>
+        <v>89654</v>
       </c>
       <c r="O9" s="19">
         <f t="shared" ref="O9:O10" si="1">IFERROR(VLOOKUP(M9,$B$4:$G$9,3,FALSE),"0%")</f>
@@ -1668,11 +1804,11 @@
       <c r="M10" s="17" t="str">
         <f>IF(N10&gt;0,INDEX(Paises,
 MATCH(N10,Vendas_Aux,0)),"")</f>
-        <v>Itália</v>
+        <v>Belgica</v>
       </c>
       <c r="N10" s="18">
         <f>LARGE(Vendas_Aux,L10)</f>
-        <v>9735.98</v>
+        <v>25863</v>
       </c>
       <c r="O10" s="19">
         <f t="shared" si="1"/>
@@ -1690,57 +1826,156 @@
       <c r="J12" s="14" t="s">
         <v>49</v>
       </c>
+      <c r="L12" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="O12" s="26" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="I13" s="16"/>
       <c r="J13" s="14" t="s">
         <v>50</v>
       </c>
+      <c r="L13" s="24">
+        <v>1</v>
+      </c>
+      <c r="M13" s="17" t="str">
+        <f>DADOS!F3</f>
+        <v>Marcos</v>
+      </c>
+      <c r="N13" s="15">
+        <f>COUNTIFS(Tabela1[VENDEDOR],AUXILIAR!M13,Tabela1[AVALIAÇÃO],5)</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="15">
+        <f>AVERAGE($N$13:$N$18)*1.1</f>
+        <v>0.55000000000000004</v>
+      </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="I14" s="16"/>
       <c r="J14" s="14" t="s">
         <v>51</v>
       </c>
+      <c r="L14" s="24">
+        <v>2</v>
+      </c>
+      <c r="M14" s="17" t="str">
+        <f>DADOS!F4</f>
+        <v>Luís</v>
+      </c>
+      <c r="N14" s="15">
+        <f>COUNTIFS(Tabela1[VENDEDOR],AUXILIAR!M14,Tabela1[AVALIAÇÃO],5)</f>
+        <v>1</v>
+      </c>
+      <c r="O14" s="15">
+        <f t="shared" ref="O14:O18" si="2">AVERAGE($N$13:$N$18)*1.1</f>
+        <v>0.55000000000000004</v>
+      </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="I15" s="16"/>
       <c r="J15" s="14" t="s">
         <v>52</v>
       </c>
+      <c r="L15" s="24">
+        <v>3</v>
+      </c>
+      <c r="M15" s="17" t="str">
+        <f>DADOS!F5</f>
+        <v>Natalia</v>
+      </c>
+      <c r="N15" s="15">
+        <f>COUNTIFS(Tabela1[VENDEDOR],AUXILIAR!M15,Tabela1[AVALIAÇÃO],5)</f>
+        <v>1</v>
+      </c>
+      <c r="O15" s="15">
+        <f t="shared" si="2"/>
+        <v>0.55000000000000004</v>
+      </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="I16" s="16"/>
       <c r="J16" s="14" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="17" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="L16" s="24">
+        <v>4</v>
+      </c>
+      <c r="M16" s="17" t="str">
+        <f>DADOS!F6</f>
+        <v>Ana</v>
+      </c>
+      <c r="N16" s="15">
+        <f>COUNTIFS(Tabela1[VENDEDOR],AUXILIAR!M16,Tabela1[AVALIAÇÃO],5)</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="15">
+        <f t="shared" si="2"/>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I17" s="16"/>
       <c r="J17" s="14" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="L17" s="24">
+        <v>5</v>
+      </c>
+      <c r="M17" s="17" t="str">
+        <f>DADOS!F7</f>
+        <v>Yuri</v>
+      </c>
+      <c r="N17" s="15">
+        <f>COUNTIFS(Tabela1[VENDEDOR],AUXILIAR!M17,Tabela1[AVALIAÇÃO],5)</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="15">
+        <f t="shared" si="2"/>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I18" s="16"/>
       <c r="J18" s="14" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="19" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="L18" s="24">
+        <v>6</v>
+      </c>
+      <c r="M18" s="17" t="str">
+        <f>DADOS!F8</f>
+        <v>Fernanda</v>
+      </c>
+      <c r="N18" s="15">
+        <f>COUNTIFS(Tabela1[VENDEDOR],AUXILIAR!M18,Tabela1[AVALIAÇÃO],5)</f>
+        <v>1</v>
+      </c>
+      <c r="O18" s="15">
+        <f t="shared" si="2"/>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I19" s="16"/>
       <c r="J19" s="14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I20" s="16"/>
       <c r="J20" s="14" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="NW9eeBQz/DOF5VMPeegseC5YCFTPOvB8DmhjjnB46BpDPMtAmcNgIqZJ2RMY7QR/b4wyus5k4Z7xB7qhVs/7+w==" saltValue="63jagXHlJ7Vhbz/m0ORzEQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="B2:G2"/>

--- a/WorkingWithIndicators.xlsx
+++ b/WorkingWithIndicators.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8525041bb7211ab/Documentos/PROJETOS/PLANILHAS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caio\OneDrive\Documentos\PROJETOS\PLANILHAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{1AE48534-4D25-44DA-8B23-CB5C4577EAED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{1CA756C0-4B1E-4EEB-BCC8-60513B00E1AF}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{1AE48534-4D25-44DA-8B23-CB5C4577EAED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{C60951AA-2F83-4A0D-AC7B-F4E121A1C10D}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8415" activeTab="2" xr2:uid="{A06ECA6C-B157-43FC-BB99-28529C5FF4EE}"/>
   </bookViews>
@@ -402,23 +402,23 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1338,11 +1338,11 @@
       <c r="J5" s="4">
         <v>5</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="21">
         <f>YEAR(Tabela1[[#This Row],[DATA]])</f>
         <v>2022</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="21">
         <f>MONTH(Tabela1[[#This Row],[DATA]])</f>
         <v>11</v>
       </c>
@@ -1379,11 +1379,11 @@
       <c r="J6" s="4">
         <v>4</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="21">
         <f>YEAR(Tabela1[[#This Row],[DATA]])</f>
         <v>2022</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="21">
         <f>MONTH(Tabela1[[#This Row],[DATA]])</f>
         <v>11</v>
       </c>
@@ -1420,11 +1420,11 @@
       <c r="J7" s="4">
         <v>4</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="21">
         <f>YEAR(Tabela1[[#This Row],[DATA]])</f>
         <v>2022</v>
       </c>
-      <c r="L7" s="23">
+      <c r="L7" s="21">
         <f>MONTH(Tabela1[[#This Row],[DATA]])</f>
         <v>11</v>
       </c>
@@ -1517,20 +1517,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="I2" s="21" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="I2" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
@@ -1684,14 +1684,14 @@
         <f>IFERROR(AVERAGEIFS(Tabela1[AVALIAÇÃO],Tabela1[PAÍS],AUXILIAR!B7,Tabela1[Ano],Ano,Tabela1[Mês],Mes),0)</f>
         <v>4</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="21"/>
-      <c r="L7" s="22" t="s">
+      <c r="J7" s="25"/>
+      <c r="L7" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="M7" s="22"/>
+      <c r="M7" s="26"/>
       <c r="N7" s="12" t="s">
         <v>0</v>
       </c>
@@ -1826,14 +1826,14 @@
       <c r="J12" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="L12" s="25" t="s">
+      <c r="L12" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25" t="s">
+      <c r="M12" s="23"/>
+      <c r="N12" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="O12" s="26" t="s">
+      <c r="O12" s="24" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1842,7 +1842,7 @@
       <c r="J13" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="L13" s="24">
+      <c r="L13" s="22">
         <v>1</v>
       </c>
       <c r="M13" s="17" t="str">
@@ -1863,7 +1863,7 @@
       <c r="J14" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="L14" s="24">
+      <c r="L14" s="22">
         <v>2</v>
       </c>
       <c r="M14" s="17" t="str">
@@ -1884,7 +1884,7 @@
       <c r="J15" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="L15" s="24">
+      <c r="L15" s="22">
         <v>3</v>
       </c>
       <c r="M15" s="17" t="str">
@@ -1905,7 +1905,7 @@
       <c r="J16" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="L16" s="24">
+      <c r="L16" s="22">
         <v>4</v>
       </c>
       <c r="M16" s="17" t="str">
@@ -1926,7 +1926,7 @@
       <c r="J17" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="L17" s="24">
+      <c r="L17" s="22">
         <v>5</v>
       </c>
       <c r="M17" s="17" t="str">
@@ -1947,7 +1947,7 @@
       <c r="J18" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="L18" s="24">
+      <c r="L18" s="22">
         <v>6</v>
       </c>
       <c r="M18" s="17" t="str">
@@ -1976,6 +1976,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="qCxTdmrzDDH/i+jkfS1ZEJaOGJcfCEaQTN4wTMFyImL7GfQIe0e5Db3MwBVwC8YyiAub999Sa89UvZVhGBvNlQ==" saltValue="wsgGVKbGxIDcgko8olsJOA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="B2:G2"/>
